--- a/stock_predictor_ai/data/company_sentiment_ready/AZO_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AZO_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8617"/>
+  <dimension ref="A1:B8678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69377,6 +69377,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8618">
+      <c r="A8618" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B8618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8619">
+      <c r="A8619" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B8619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8620">
+      <c r="A8620" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B8620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8621">
+      <c r="A8621" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B8621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8622">
+      <c r="A8622" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B8622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8623">
+      <c r="A8623" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B8623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8624">
+      <c r="A8624" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B8624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8625">
+      <c r="A8625" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8626">
+      <c r="A8626" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B8626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8627">
+      <c r="A8627" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B8627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8628">
+      <c r="A8628" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B8628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8629">
+      <c r="A8629" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B8629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8630">
+      <c r="A8630" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B8630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8631">
+      <c r="A8631" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B8631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8632">
+      <c r="A8632" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B8632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8633">
+      <c r="A8633" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B8633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8634">
+      <c r="A8634" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8635">
+      <c r="A8635" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B8635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8636">
+      <c r="A8636" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B8636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8637">
+      <c r="A8637" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B8637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8638">
+      <c r="A8638" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B8638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8639">
+      <c r="A8639" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B8639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8640">
+      <c r="A8640" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B8640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8641">
+      <c r="A8641" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B8641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8642">
+      <c r="A8642" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B8642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8643">
+      <c r="A8643" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B8643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8644">
+      <c r="A8644" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B8644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8645">
+      <c r="A8645" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B8645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8646">
+      <c r="A8646" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B8646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8647">
+      <c r="A8647" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8648">
+      <c r="A8648" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B8648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8649">
+      <c r="A8649" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B8649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8650">
+      <c r="A8650" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B8650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8651">
+      <c r="A8651" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B8651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8652">
+      <c r="A8652" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B8652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8653">
+      <c r="A8653" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B8653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8654">
+      <c r="A8654" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B8654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8655">
+      <c r="A8655" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B8655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8656">
+      <c r="A8656" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B8656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8657">
+      <c r="A8657" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B8657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8658">
+      <c r="A8658" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B8658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8659">
+      <c r="A8659" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B8659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8660">
+      <c r="A8660" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B8660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8661">
+      <c r="A8661" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B8661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8662">
+      <c r="A8662" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B8662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8663">
+      <c r="A8663" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B8663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8664">
+      <c r="A8664" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B8664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8665">
+      <c r="A8665" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B8665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8666">
+      <c r="A8666" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B8666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8667">
+      <c r="A8667" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B8667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8668">
+      <c r="A8668" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B8668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8669">
+      <c r="A8669" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B8669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8670">
+      <c r="A8670" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B8670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8671">
+      <c r="A8671" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B8671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8672">
+      <c r="A8672" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B8672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8673">
+      <c r="A8673" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B8673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8674">
+      <c r="A8674" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B8674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8675">
+      <c r="A8675" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B8675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8676">
+      <c r="A8676" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8677">
+      <c r="A8677" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B8677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8678">
+      <c r="A8678" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8678" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
